--- a/data/trans_orig/P1416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{934D8C06-166D-45EF-9853-B17E1869381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D21DCEE-6249-4584-AD4C-17103366E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0D4B5D6-954F-4ACE-AD67-603DE751D260}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1241519-1117-4DC6-A76B-54E205C1F646}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="325">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,892 +95,925 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
+    <t>88,69%</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC5CB00-FC2D-4830-B894-DD8C8FA0C5D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7820F2-89FB-4C6F-B619-AD244DC2AAEE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2215,13 +2248,13 @@
         <v>543309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2269,13 @@
         <v>3057265</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>2982</v>
@@ -2251,28 +2284,28 @@
         <v>3055168</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>5984</v>
       </c>
       <c r="N18" s="7">
-        <v>6112431</v>
+        <v>6112432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2347,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2328,7 +2361,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAC24A4-A542-485E-9751-48CC9C9E6EC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BF0F5A-3BC6-44FA-A548-0160026CF83C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2364,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2477,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2507,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2555,13 @@
         <v>35483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -2537,13 +2570,13 @@
         <v>67115</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -2552,13 +2585,13 @@
         <v>102599</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2606,13 @@
         <v>939160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>1184</v>
@@ -2588,13 +2621,13 @@
         <v>1270681</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>2061</v>
@@ -2603,13 +2636,13 @@
         <v>2209841</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2728,13 +2761,13 @@
         <v>108319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>139</v>
@@ -2743,13 +2776,13 @@
         <v>148106</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>243</v>
@@ -2758,13 +2791,13 @@
         <v>256424</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2812,13 @@
         <v>1854616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>1495</v>
@@ -2794,13 +2827,13 @@
         <v>1608421</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>3246</v>
@@ -2809,13 +2842,13 @@
         <v>3463038</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2922,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2904,7 +2937,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2919,7 +2952,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2967,13 @@
         <v>31969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2949,13 +2982,13 @@
         <v>44970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -2964,13 +2997,13 @@
         <v>76939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +3018,13 @@
         <v>449212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -3000,13 +3033,13 @@
         <v>413661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>780</v>
@@ -3015,13 +3048,13 @@
         <v>862873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3173,13 @@
         <v>175771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -3155,13 +3188,13 @@
         <v>260191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -3170,13 +3203,13 @@
         <v>435962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3224,13 @@
         <v>3242989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
         <v>3050</v>
@@ -3206,28 +3239,28 @@
         <v>3292764</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>6087</v>
       </c>
       <c r="N18" s="7">
-        <v>6535752</v>
+        <v>6535753</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,7 +3302,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6971714</v>
+        <v>6971715</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3283,7 +3316,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181E1928-1A67-43F0-85FC-4045FDAC07CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747FC980-1AC0-470D-87A3-0D903F72BF0D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3432,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3447,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3477,13 +3510,13 @@
         <v>17373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -3492,13 +3525,13 @@
         <v>49759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>63</v>
@@ -3507,13 +3540,13 @@
         <v>67132</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3561,13 @@
         <v>736974</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>847</v>
@@ -3543,13 +3576,13 @@
         <v>944901</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>1591</v>
@@ -3558,13 +3591,13 @@
         <v>1681875</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3653,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3668,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3716,13 @@
         <v>103157</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="H9" s="7">
         <v>166</v>
@@ -3698,13 +3731,13 @@
         <v>172042</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M9" s="7">
         <v>265</v>
@@ -3713,13 +3746,13 @@
         <v>275199</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3767,13 @@
         <v>1973228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>1742</v>
@@ -3749,13 +3782,13 @@
         <v>1816258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>3595</v>
@@ -3764,13 +3797,13 @@
         <v>3789486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3877,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3874,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3922,13 @@
         <v>46940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -3904,13 +3937,13 @@
         <v>59769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -3919,13 +3952,13 @@
         <v>106709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3973,13 @@
         <v>499946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3955,13 +3988,13 @@
         <v>489371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>929</v>
@@ -3970,13 +4003,13 @@
         <v>989317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4128,13 @@
         <v>167469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>266</v>
@@ -4110,13 +4143,13 @@
         <v>281571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -4125,13 +4158,13 @@
         <v>449040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4179,13 @@
         <v>3210149</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H18" s="7">
         <v>3060</v>
@@ -4161,13 +4194,13 @@
         <v>3250529</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M18" s="7">
         <v>6115</v>
@@ -4176,13 +4209,13 @@
         <v>6460678</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4271,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4257,7 +4290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6116B55-D11E-4F96-A7E6-85B2A573EB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB95CA89-C32D-438F-85A3-1F3ADD555A3A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4274,7 +4307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4387,7 +4420,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4396,13 +4429,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4417,7 +4450,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4465,13 @@
         <v>31693</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>141</v>
@@ -4447,13 +4480,13 @@
         <v>82916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="M5" s="7">
         <v>177</v>
@@ -4462,13 +4495,13 @@
         <v>114609</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4516,13 @@
         <v>508870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>1283</v>
@@ -4498,13 +4531,13 @@
         <v>748853</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>1937</v>
@@ -4513,13 +4546,13 @@
         <v>1257723</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4608,7 +4641,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4617,13 +4650,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4671,13 @@
         <v>238874</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H9" s="7">
         <v>336</v>
@@ -4653,13 +4686,13 @@
         <v>246026</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>543</v>
@@ -4668,13 +4701,13 @@
         <v>484900</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4722,13 @@
         <v>1918188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>2570</v>
@@ -4704,13 +4737,13 @@
         <v>1988038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>4350</v>
@@ -4719,13 +4752,13 @@
         <v>3906226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4814,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4829,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4877,13 @@
         <v>53528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -4859,13 +4892,13 @@
         <v>101916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>203</v>
@@ -4874,13 +4907,13 @@
         <v>155444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4928,13 @@
         <v>619511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>855</v>
@@ -4910,13 +4943,13 @@
         <v>610360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1480</v>
@@ -4925,13 +4958,13 @@
         <v>1229872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5047,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5029,13 +5062,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5083,13 @@
         <v>324095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>624</v>
@@ -5065,13 +5098,13 @@
         <v>430858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>923</v>
@@ -5080,13 +5113,13 @@
         <v>754953</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5134,13 @@
         <v>3046569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
         <v>4708</v>
@@ -5116,13 +5149,13 @@
         <v>3347252</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>153</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
         <v>7767</v>
@@ -5131,13 +5164,13 @@
         <v>6393821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,7 +5226,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D21DCEE-6249-4584-AD4C-17103366E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{998778AC-F6D8-4E99-8736-77F52FAAA6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1241519-1117-4DC6-A76B-54E205C1F646}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{397EFA88-91EA-4124-A648-FA1257800BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="332">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,124 +95,124 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,580 +230,601 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>6,75%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>11,66%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
   </si>
   <si>
     <t>8,33%</t>
@@ -1425,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7820F2-89FB-4C6F-B619-AD244DC2AAEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4491BF7-E99B-4BA2-8441-0EE89D3E82D7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1854,7 +1875,7 @@
         <v>1538</v>
       </c>
       <c r="D10" s="7">
-        <v>1576845</v>
+        <v>1576846</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1905,7 +1926,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2224,7 +2245,7 @@
         <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="H17" s="7">
         <v>315</v>
@@ -2233,13 +2254,13 @@
         <v>324030</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>527</v>
@@ -2248,13 +2269,13 @@
         <v>543309</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,16 +2287,16 @@
         <v>3002</v>
       </c>
       <c r="D18" s="7">
-        <v>3057265</v>
+        <v>3057264</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>2982</v>
@@ -2284,13 +2305,13 @@
         <v>3055168</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>5984</v>
@@ -2299,13 +2320,13 @@
         <v>6112432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2338,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2361,7 +2382,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2380,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BF0F5A-3BC6-44FA-A548-0160026CF83C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B698925-44C8-42B7-92E2-4F6D3172B0CF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2397,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2510,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2540,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2576,13 @@
         <v>35483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -2570,13 +2591,13 @@
         <v>67115</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -2585,13 +2606,13 @@
         <v>102599</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2627,13 @@
         <v>939160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>1184</v>
@@ -2621,13 +2642,13 @@
         <v>1270681</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>2061</v>
@@ -2636,13 +2657,13 @@
         <v>2209841</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2737,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2761,13 +2782,13 @@
         <v>108319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" s="7">
         <v>139</v>
@@ -2776,13 +2797,13 @@
         <v>148106</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M9" s="7">
         <v>243</v>
@@ -2791,13 +2812,13 @@
         <v>256424</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2833,13 @@
         <v>1854616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>1495</v>
@@ -2827,13 +2848,13 @@
         <v>1608421</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>3246</v>
@@ -2842,13 +2863,13 @@
         <v>3463038</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2937,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2952,7 +2973,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2988,13 @@
         <v>31969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2982,13 +3003,13 @@
         <v>44970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -2997,13 +3018,13 @@
         <v>76939</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3039,13 @@
         <v>449212</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -3033,7 +3054,7 @@
         <v>413661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>152</v>
@@ -3203,10 +3224,10 @@
         <v>435962</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>164</v>
@@ -3254,13 +3275,13 @@
         <v>6535753</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3337,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747FC980-1AC0-470D-87A3-0D903F72BF0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3677585-2421-46C1-8072-CD069E46447E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3671,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3686,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3722,7 +3743,7 @@
         <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>166</v>
@@ -3731,13 +3752,13 @@
         <v>172042</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>265</v>
@@ -3746,13 +3767,13 @@
         <v>275199</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3788,13 @@
         <v>1973228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>1742</v>
@@ -3782,13 +3803,13 @@
         <v>1816258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>3595</v>
@@ -3797,13 +3818,13 @@
         <v>3789486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3907,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3943,13 @@
         <v>46940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -3937,13 +3958,13 @@
         <v>59769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -3952,13 +3973,13 @@
         <v>106709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3994,13 @@
         <v>499946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3988,13 +4009,13 @@
         <v>489371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>929</v>
@@ -4003,13 +4024,13 @@
         <v>989317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4149,13 @@
         <v>167469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>266</v>
@@ -4143,13 +4164,13 @@
         <v>281571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -4158,13 +4179,13 @@
         <v>449040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4200,13 @@
         <v>3210149</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H18" s="7">
         <v>3060</v>
@@ -4194,13 +4215,13 @@
         <v>3250529</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M18" s="7">
         <v>6115</v>
@@ -4209,13 +4230,13 @@
         <v>6460678</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4292,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4290,7 +4311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB95CA89-C32D-438F-85A3-1F3ADD555A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE3FB2B-113F-441A-8591-9010B4CF0A96}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4307,7 +4328,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4420,7 +4441,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4429,13 +4450,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4450,7 +4471,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4486,13 @@
         <v>31693</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
         <v>141</v>
@@ -4480,13 +4501,13 @@
         <v>82916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>177</v>
@@ -4495,13 +4516,13 @@
         <v>114609</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4537,13 @@
         <v>508870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H6" s="7">
         <v>1283</v>
@@ -4531,13 +4552,13 @@
         <v>748853</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M6" s="7">
         <v>1937</v>
@@ -4546,13 +4567,13 @@
         <v>1257723</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4641,7 +4662,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4650,13 +4671,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4692,13 @@
         <v>238874</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H9" s="7">
         <v>336</v>
@@ -4686,13 +4707,13 @@
         <v>246026</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M9" s="7">
         <v>543</v>
@@ -4701,13 +4722,13 @@
         <v>484900</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4743,13 @@
         <v>1918188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>2570</v>
@@ -4737,13 +4758,13 @@
         <v>1988038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>4350</v>
@@ -4752,13 +4773,13 @@
         <v>3906226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4847,7 +4868,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4862,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4898,13 @@
         <v>53528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -4892,13 +4913,13 @@
         <v>101916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>203</v>
@@ -4907,13 +4928,13 @@
         <v>155444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4949,13 @@
         <v>619511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>855</v>
@@ -4943,13 +4964,13 @@
         <v>610360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>1480</v>
@@ -4958,13 +4979,13 @@
         <v>1229872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5068,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5068,7 +5089,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5104,13 @@
         <v>324095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>624</v>
@@ -5098,13 +5119,13 @@
         <v>430858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>923</v>
@@ -5113,13 +5134,13 @@
         <v>754953</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5155,13 @@
         <v>3046569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>4708</v>
@@ -5149,13 +5170,13 @@
         <v>3347252</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>7767</v>
@@ -5164,13 +5185,13 @@
         <v>6393821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,7 +5247,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02C8B6BC-AEE3-4E12-B48D-43D2DB25BA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2A7DDD-ED0E-477C-AE28-F264C385E899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99B3E1D7-65CE-4F55-AC2D-9A927366BE40}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7DE0E4CD-9EC3-4C3D-AA7C-EC956D9FB31E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -704,184 +704,208 @@
     <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A6D51-CA9C-44C1-82DC-F32621C551A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5A3DA-F8A6-4C78-9E26-7125FB77B38B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1495,7 +1519,7 @@
         <v>2178</v>
       </c>
       <c r="N5" s="7">
-        <v>2194459</v>
+        <v>2194458</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1546,7 +1570,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1620,7 +1644,7 @@
         <v>1538</v>
       </c>
       <c r="D8" s="7">
-        <v>1576845</v>
+        <v>1576846</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1671,7 +1695,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1930,7 +1954,7 @@
         <v>3002</v>
       </c>
       <c r="D14" s="7">
-        <v>3057265</v>
+        <v>3057264</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1945,7 +1969,7 @@
         <v>2982</v>
       </c>
       <c r="I14" s="7">
-        <v>3055168</v>
+        <v>3055167</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -1960,7 +1984,7 @@
         <v>5984</v>
       </c>
       <c r="N14" s="7">
-        <v>6112431</v>
+        <v>6112432</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>42</v>
@@ -1981,7 +2005,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1996,7 +2020,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2011,7 +2035,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2044,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2157E8D4-7959-4126-9544-1B949C0BC332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0894F412-46BB-4B12-8E2D-D8CD208A1C6E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2231,7 +2255,7 @@
         <v>1184</v>
       </c>
       <c r="I5" s="7">
-        <v>1270681</v>
+        <v>1270682</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>97</v>
@@ -2282,7 +2306,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2401,7 +2425,7 @@
         <v>3246</v>
       </c>
       <c r="N8" s="7">
-        <v>3463038</v>
+        <v>3463039</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>116</v>
@@ -2452,7 +2476,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3719462</v>
+        <v>3719463</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2556,7 +2580,7 @@
         <v>780</v>
       </c>
       <c r="N11" s="7">
-        <v>862873</v>
+        <v>862874</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>134</v>
@@ -2607,7 +2631,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2711,7 +2735,7 @@
         <v>6087</v>
       </c>
       <c r="N14" s="7">
-        <v>6535752</v>
+        <v>6535753</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>151</v>
@@ -2762,7 +2786,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6971714</v>
+        <v>6971715</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2795,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EFF4F9-1A2E-4DCF-A9E6-2247CF4C73B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7038B8E-785D-463B-9C35-43D211F447C0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3307,7 +3331,7 @@
         <v>929</v>
       </c>
       <c r="N11" s="7">
-        <v>989317</v>
+        <v>989318</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>203</v>
@@ -3358,7 +3382,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3546,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637052AD-B488-4BA4-9FD8-04F742607523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4A4113-860A-4DF4-8A5C-56D2B6705590}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,7 +3691,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>31693</v>
+        <v>30415</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>221</v>
@@ -3676,37 +3700,37 @@
         <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>141</v>
       </c>
       <c r="I4" s="7">
-        <v>82916</v>
+        <v>73970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>177</v>
       </c>
       <c r="N4" s="7">
-        <v>114609</v>
+        <v>104385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,46 +3742,46 @@
         <v>654</v>
       </c>
       <c r="D5" s="7">
-        <v>508870</v>
+        <v>483527</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>1283</v>
       </c>
       <c r="I5" s="7">
-        <v>748853</v>
+        <v>677910</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1937</v>
       </c>
       <c r="N5" s="7">
-        <v>1257723</v>
+        <v>1161437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,7 +3793,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3784,7 +3808,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831769</v>
+        <v>751880</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3799,7 +3823,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372332</v>
+        <v>1265822</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3822,46 +3846,46 @@
         <v>207</v>
       </c>
       <c r="D7" s="7">
-        <v>238874</v>
+        <v>239427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>336</v>
       </c>
       <c r="I7" s="7">
-        <v>246026</v>
+        <v>224443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
       </c>
       <c r="N7" s="7">
-        <v>484900</v>
+        <v>463871</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,46 +3897,46 @@
         <v>1780</v>
       </c>
       <c r="D8" s="7">
-        <v>1918188</v>
+        <v>2046243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2570</v>
       </c>
       <c r="I8" s="7">
-        <v>1988038</v>
+        <v>2000472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4350</v>
       </c>
       <c r="N8" s="7">
-        <v>3906226</v>
+        <v>4046714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3948,7 @@
         <v>1987</v>
       </c>
       <c r="D9" s="7">
-        <v>2157062</v>
+        <v>2285670</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3939,7 +3963,7 @@
         <v>2906</v>
       </c>
       <c r="I9" s="7">
-        <v>2234064</v>
+        <v>2224915</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3954,7 +3978,7 @@
         <v>4893</v>
       </c>
       <c r="N9" s="7">
-        <v>4391126</v>
+        <v>4510585</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3977,46 +4001,46 @@
         <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>53528</v>
+        <v>52421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>147</v>
       </c>
       <c r="I10" s="7">
-        <v>101916</v>
+        <v>93943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>203</v>
       </c>
       <c r="N10" s="7">
-        <v>155444</v>
+        <v>146364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,46 +4052,46 @@
         <v>625</v>
       </c>
       <c r="D11" s="7">
-        <v>619511</v>
+        <v>594202</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>855</v>
       </c>
       <c r="I11" s="7">
-        <v>610360</v>
+        <v>565114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>1480</v>
       </c>
       <c r="N11" s="7">
-        <v>1229872</v>
+        <v>1159316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4103,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4094,7 +4118,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712276</v>
+        <v>659057</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4109,7 +4133,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1385316</v>
+        <v>1305680</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4132,46 +4156,46 @@
         <v>299</v>
       </c>
       <c r="D13" s="7">
-        <v>324095</v>
+        <v>322264</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>624</v>
       </c>
       <c r="I13" s="7">
-        <v>430858</v>
+        <v>392357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>923</v>
       </c>
       <c r="N13" s="7">
-        <v>754953</v>
+        <v>714620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,46 +4207,46 @@
         <v>3059</v>
       </c>
       <c r="D14" s="7">
-        <v>3046569</v>
+        <v>3123972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>4708</v>
       </c>
       <c r="I14" s="7">
-        <v>3347252</v>
+        <v>3243495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>7767</v>
       </c>
       <c r="N14" s="7">
-        <v>6393821</v>
+        <v>6367467</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4258,7 @@
         <v>3358</v>
       </c>
       <c r="D15" s="7">
-        <v>3370664</v>
+        <v>3446236</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4249,7 +4273,7 @@
         <v>5332</v>
       </c>
       <c r="I15" s="7">
-        <v>3778110</v>
+        <v>3635852</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4264,7 +4288,7 @@
         <v>8690</v>
       </c>
       <c r="N15" s="7">
-        <v>7148774</v>
+        <v>7082087</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
